--- a/config_1.12/shoping_config.xlsx
+++ b/config_1.12/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8222,7 +8222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8999,7 +8999,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -9012,7 +9012,7 @@
     <col min="11" max="11" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="12" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -9135,36 +9135,36 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="11"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="11"/>
       <c r="C11" s="12"/>
     </row>
@@ -9183,7 +9183,7 @@
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
@@ -9214,7 +9214,7 @@
     <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="11" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="11" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="11" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" s="11" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" s="11" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="11" customFormat="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="11" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" s="11" customFormat="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -11124,14 +11124,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN519"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H500" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="U500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A512" sqref="A512:XFD519"/>
+      <selection pane="bottomRight" activeCell="V525" sqref="V525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="5"/>
     <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
@@ -11171,7 +11171,7 @@
     <col min="41" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
       <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="5" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="5" customFormat="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" s="5" customFormat="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" s="5" customFormat="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" s="5" customFormat="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" s="5" customFormat="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" s="5" customFormat="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="5" customFormat="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" s="5" customFormat="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" s="5" customFormat="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="5" customFormat="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" s="5" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="5" customFormat="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" s="5" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" s="5" customFormat="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" s="5" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="5" customFormat="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" s="5" customFormat="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" s="5" customFormat="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" s="5" customFormat="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" s="5" customFormat="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" s="5" customFormat="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" s="5" customFormat="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" s="5" customFormat="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" s="5" customFormat="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" s="5" customFormat="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" s="5" customFormat="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" s="5" customFormat="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" s="5" customFormat="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" s="5" customFormat="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" s="5" customFormat="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" s="5" customFormat="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" s="5" customFormat="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" s="5" customFormat="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" s="5" customFormat="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" s="5" customFormat="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" s="5" customFormat="1">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" s="5" customFormat="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" s="5" customFormat="1">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" s="5" customFormat="1">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" s="22" customFormat="1">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="5" customFormat="1">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" s="5" customFormat="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="5" customFormat="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" s="5" customFormat="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" s="5" customFormat="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" s="5" customFormat="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" s="5" customFormat="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" s="5" customFormat="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" s="5" customFormat="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" s="5" customFormat="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" s="71" customFormat="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" s="71" customFormat="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" s="71" customFormat="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" s="71" customFormat="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" s="71" customFormat="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" s="5" customFormat="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" s="5" customFormat="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" s="5" customFormat="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" s="5" customFormat="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" s="5" customFormat="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" s="19" customFormat="1">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" s="19" customFormat="1">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" s="5" customFormat="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" s="5" customFormat="1">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" s="19" customFormat="1">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" s="5" customFormat="1">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" s="5" customFormat="1">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" s="5" customFormat="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" s="5" customFormat="1">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" s="5" customFormat="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" s="5" customFormat="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" s="5" customFormat="1">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" s="5" customFormat="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" s="5" customFormat="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" s="5" customFormat="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" s="5" customFormat="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" s="71" customFormat="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" s="5" customFormat="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" s="5" customFormat="1">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" s="5" customFormat="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" s="5" customFormat="1">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" s="5" customFormat="1">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" s="19" customFormat="1">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" s="19" customFormat="1">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" s="19" customFormat="1">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" s="19" customFormat="1">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" s="19" customFormat="1">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" s="19" customFormat="1">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" s="19" customFormat="1">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" s="19" customFormat="1">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" s="19" customFormat="1">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" s="5" customFormat="1">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" s="5" customFormat="1">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" s="5" customFormat="1">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" s="5" customFormat="1">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" s="5" customFormat="1">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" s="5" customFormat="1">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" s="5" customFormat="1">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" s="5" customFormat="1">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" s="5" customFormat="1">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" s="5" customFormat="1">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" s="5" customFormat="1">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" s="5" customFormat="1">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" s="5" customFormat="1">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" s="5" customFormat="1">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" s="5" customFormat="1">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" s="5" customFormat="1">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" s="5" customFormat="1">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" s="5" customFormat="1">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" s="5" customFormat="1">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" s="71" customFormat="1">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" s="71" customFormat="1">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" s="5" customFormat="1">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" s="5" customFormat="1">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" s="5" customFormat="1">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" s="5" customFormat="1">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" s="5" customFormat="1">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" s="5" customFormat="1">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" s="5" customFormat="1">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" s="5" customFormat="1">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" s="5" customFormat="1">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" s="5" customFormat="1">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" s="5" customFormat="1">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" s="5" customFormat="1">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39" s="5" customFormat="1">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" s="5" customFormat="1">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" s="5" customFormat="1">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" s="5" customFormat="1">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" s="5" customFormat="1">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" s="5" customFormat="1">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39" s="5" customFormat="1">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" s="5" customFormat="1">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" s="5" customFormat="1">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" s="5" customFormat="1">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" s="5" customFormat="1">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" s="5" customFormat="1">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" s="5" customFormat="1">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" s="5" customFormat="1">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" s="5" customFormat="1">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39" s="5" customFormat="1">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39" s="5" customFormat="1">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39" s="5" customFormat="1">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39" s="5" customFormat="1">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39" s="5" customFormat="1">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39" s="5" customFormat="1">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39" s="5" customFormat="1">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:39" s="5" customFormat="1">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:39" s="5" customFormat="1">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:39" s="5" customFormat="1">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:39" s="5" customFormat="1">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:39" s="19" customFormat="1">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:39" s="19" customFormat="1">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:39" s="19" customFormat="1">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:39" s="43" customFormat="1">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:39" s="43" customFormat="1">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" s="43" customFormat="1">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:39" s="43" customFormat="1">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:39" s="43" customFormat="1">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:39" s="43" customFormat="1">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:39" s="43" customFormat="1">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:39" s="43" customFormat="1">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:39" s="43" customFormat="1">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:39" s="43" customFormat="1">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:39" s="43" customFormat="1">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:39" s="43" customFormat="1">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:39" s="43" customFormat="1">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:39" s="43" customFormat="1">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:39" s="43" customFormat="1">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:39" s="5" customFormat="1">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:39" s="5" customFormat="1">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:39" s="5" customFormat="1">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:39" s="5" customFormat="1">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:39" s="5" customFormat="1">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:39" s="5" customFormat="1">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:39" s="5" customFormat="1">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:39" s="5" customFormat="1">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:39" s="5" customFormat="1">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -22878,7 +22878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:39" s="5" customFormat="1">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:39" s="5" customFormat="1">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:39" s="5" customFormat="1">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:39" s="5" customFormat="1">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:39" s="5" customFormat="1">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:39" s="5" customFormat="1">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:39" s="5" customFormat="1">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:39" s="5" customFormat="1">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:39" s="5" customFormat="1">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:39" s="5" customFormat="1">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:39" s="5" customFormat="1">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:39" s="5" customFormat="1">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:39" s="5" customFormat="1">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:39" s="5" customFormat="1">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:39" s="5" customFormat="1">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:39" s="5" customFormat="1">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:39" s="5" customFormat="1">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:39" s="5" customFormat="1">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:39" s="5" customFormat="1">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:39" s="5" customFormat="1">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:39" s="5" customFormat="1">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:39" s="5" customFormat="1">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:39" s="5" customFormat="1">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:39" s="5" customFormat="1">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:39" s="5" customFormat="1">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:39" s="5" customFormat="1">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:39" s="5" customFormat="1">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:39" s="5" customFormat="1">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:39" s="5" customFormat="1">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:39" s="5" customFormat="1">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -24828,7 +24828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:39" s="5" customFormat="1">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:39" s="5" customFormat="1">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:39" s="5" customFormat="1">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:39" s="5" customFormat="1">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:39" s="5" customFormat="1">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:39" s="5" customFormat="1">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:39" s="5" customFormat="1">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:39" s="5" customFormat="1">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:39" s="5" customFormat="1">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:39" s="5" customFormat="1">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:39" s="5" customFormat="1">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:39" s="5" customFormat="1">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:39" s="5" customFormat="1">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:39" s="5" customFormat="1">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:39" s="5" customFormat="1">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:39" s="5" customFormat="1">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -25868,7 +25868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:39" s="5" customFormat="1">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:39" s="5" customFormat="1">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:39" s="5" customFormat="1">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:39" s="5" customFormat="1">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:39" s="5" customFormat="1">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:39" s="5" customFormat="1">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:39" s="5" customFormat="1">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:39" s="5" customFormat="1">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:39" s="5" customFormat="1">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:39" s="19" customFormat="1">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -26523,7 +26523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:39" s="5" customFormat="1">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:39" s="5" customFormat="1">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -26653,7 +26653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:39" s="5" customFormat="1">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:39" s="5" customFormat="1">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -26780,7 +26780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:39" s="5" customFormat="1">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:39" s="5" customFormat="1">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -26910,7 +26910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:39" s="5" customFormat="1">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:39" s="5" customFormat="1">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -27043,7 +27043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:39" s="5" customFormat="1">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -27108,7 +27108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:39" s="5" customFormat="1">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -27173,7 +27173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:39" s="5" customFormat="1">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:39" s="5" customFormat="1">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:39" s="5" customFormat="1">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -27368,7 +27368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:39" s="5" customFormat="1">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:39" s="5" customFormat="1">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -27498,7 +27498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:39" s="5" customFormat="1">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -27563,7 +27563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:39" s="5" customFormat="1">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -27628,7 +27628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:39" s="5" customFormat="1">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:39" s="5" customFormat="1">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:39" s="5" customFormat="1">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:39" s="5" customFormat="1">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:39" s="5" customFormat="1">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -27953,7 +27953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="75" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="75" customFormat="1" ht="14.25">
       <c r="A273" s="87">
         <v>272</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" ht="14.25">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -28089,7 +28089,7 @@
       <c r="AM274" s="5"/>
       <c r="AN274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -28284,7 +28284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28349,7 +28349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28414,7 +28414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28544,7 +28544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28609,7 +28609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28674,7 +28674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28739,7 +28739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28863,7 +28863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:39" s="5" customFormat="1">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -29049,7 +29049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:39" s="5" customFormat="1">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -29111,7 +29111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:39" s="5" customFormat="1">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -29173,7 +29173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:39" s="5" customFormat="1">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:39" s="5" customFormat="1">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:39" s="5" customFormat="1">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:39" s="5" customFormat="1">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -29421,7 +29421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:39" s="5" customFormat="1">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:39" s="5" customFormat="1">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -29545,7 +29545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:39" s="5" customFormat="1">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:39" s="5" customFormat="1">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:39" s="5" customFormat="1">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:39" s="5" customFormat="1">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:39" s="5" customFormat="1">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:39" s="5" customFormat="1">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -29917,7 +29917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:39" s="5" customFormat="1">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:39" s="5" customFormat="1">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -30041,7 +30041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:39" s="5" customFormat="1">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:39" s="5" customFormat="1">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:39" s="5" customFormat="1">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -30227,7 +30227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:39" s="5" customFormat="1">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -30289,7 +30289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:39" s="5" customFormat="1">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -30351,7 +30351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:39" s="5" customFormat="1">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:39" s="5" customFormat="1">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:39" s="5" customFormat="1">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -30537,7 +30537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:39" s="5" customFormat="1">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -30599,7 +30599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:39" s="5" customFormat="1">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:39" s="5" customFormat="1">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -30723,7 +30723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:39" s="5" customFormat="1">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:39" s="5" customFormat="1">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -30847,7 +30847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:39" s="5" customFormat="1">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:39" s="5" customFormat="1">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -30959,7 +30959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:39" s="5" customFormat="1">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:39" s="5" customFormat="1">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -31083,7 +31083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:39" s="43" customFormat="1">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -31148,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:39" s="43" customFormat="1">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:39" s="43" customFormat="1">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -31278,7 +31278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:39" s="40" customFormat="1">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:39" s="43" customFormat="1">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:39">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:39">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:39">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -31649,7 +31649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:39">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:39">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -31815,7 +31815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:39">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -31898,7 +31898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:39">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:39">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -32064,7 +32064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:39">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -32147,7 +32147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:39">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -32230,7 +32230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:39" s="19" customFormat="1">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -32298,7 +32298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:39">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:39">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -32468,7 +32468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:39" s="5" customFormat="1">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:39">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:39">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -32683,7 +32683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:39">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -32754,7 +32754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:39">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -32825,7 +32825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:39">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -32896,7 +32896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:39">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:39">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:39">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -33109,7 +33109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:39">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:39">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -33251,7 +33251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:39">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -33322,7 +33322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:39" s="5" customFormat="1">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -33390,7 +33390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:39" s="5" customFormat="1" ht="12" customHeight="1">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:39" s="5" customFormat="1">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -33526,7 +33526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:39" s="5" customFormat="1">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:39" s="5" customFormat="1">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:39" s="5" customFormat="1">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -33730,7 +33730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:39" s="5" customFormat="1">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -33798,7 +33798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:39" s="5" customFormat="1">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:39" s="5" customFormat="1">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -33934,7 +33934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:39" s="5" customFormat="1">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -34008,7 +34008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:39" s="5" customFormat="1">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:39" s="5" customFormat="1">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -34156,7 +34156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:39" s="5" customFormat="1">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -34221,7 +34221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:39" s="5" customFormat="1">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -34286,7 +34286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:39" s="5" customFormat="1">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -34351,7 +34351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:39" s="5" customFormat="1">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -34416,7 +34416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:39" s="5" customFormat="1">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:39" s="5" customFormat="1">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -34543,7 +34543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:39" s="5" customFormat="1">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -34605,7 +34605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:39" s="5" customFormat="1">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:39" s="5" customFormat="1">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -34729,7 +34729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:39" s="5" customFormat="1">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:39" s="5" customFormat="1">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:39" s="5" customFormat="1">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -34933,7 +34933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:39" s="5" customFormat="1">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -35001,7 +35001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:39" s="5" customFormat="1">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -35069,7 +35069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:39" s="5" customFormat="1">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:39" s="5" customFormat="1">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:39" s="5" customFormat="1">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -35273,7 +35273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:39" s="5" customFormat="1">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -35341,7 +35341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:39" s="5" customFormat="1">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -35409,7 +35409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:39" s="5" customFormat="1">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -35477,7 +35477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:39" s="5" customFormat="1">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35545,7 +35545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:39" s="61" customFormat="1">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -35613,7 +35613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:39" s="61" customFormat="1">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:39" s="61" customFormat="1">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -35749,7 +35749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:39" s="59" customFormat="1">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -35817,7 +35817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:39" s="59" customFormat="1">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:39" s="59" customFormat="1">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:39" s="61" customFormat="1">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -36021,7 +36021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:39" s="61" customFormat="1">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -36089,7 +36089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:39" s="61" customFormat="1">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:39" s="5" customFormat="1">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -36219,7 +36219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:39" s="5" customFormat="1">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -36281,7 +36281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:39" s="5" customFormat="1">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:39" s="5" customFormat="1">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36405,7 +36405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:39" s="5" customFormat="1">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36467,7 +36467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:39" s="5" customFormat="1">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:39" s="5" customFormat="1">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36594,7 +36594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:39" s="5" customFormat="1">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36659,7 +36659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:39" s="5" customFormat="1">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36724,7 +36724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:39" s="5" customFormat="1">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36789,7 +36789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:39" s="5" customFormat="1">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36854,7 +36854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:39" s="5" customFormat="1">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36919,7 +36919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:39" s="5" customFormat="1">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36984,7 +36984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:39" s="5" customFormat="1">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -37049,7 +37049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:39" s="5" customFormat="1">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -37114,7 +37114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:39" s="5" customFormat="1">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:39" s="5" customFormat="1">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -37244,7 +37244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:39" s="5" customFormat="1">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -37309,7 +37309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:39" s="5" customFormat="1">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -37374,7 +37374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:39" s="71" customFormat="1">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37439,7 +37439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:39" s="40" customFormat="1">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -37507,7 +37507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:39" s="40" customFormat="1">
       <c r="A416" s="5">
         <v>415</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:39" s="40" customFormat="1">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:39" s="40" customFormat="1">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37711,7 +37711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:39" s="40" customFormat="1">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -37779,7 +37779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:39" s="40" customFormat="1">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -37847,7 +37847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:39" s="19" customFormat="1">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:39">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:39">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -38051,7 +38051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:39">
       <c r="A424" s="5">
         <v>423</v>
       </c>
@@ -38119,7 +38119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:39">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -38175,7 +38175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:39">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -38231,7 +38231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:39">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:39">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -38343,7 +38343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:39">
       <c r="A429" s="5">
         <v>428</v>
       </c>
@@ -38399,7 +38399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:39" s="43" customFormat="1">
       <c r="A430" s="5">
         <v>429</v>
       </c>
@@ -38467,7 +38467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:39" s="43" customFormat="1">
       <c r="A431" s="5">
         <v>430</v>
       </c>
@@ -38535,7 +38535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:39" s="43" customFormat="1">
       <c r="A432" s="5">
         <v>431</v>
       </c>
@@ -38603,7 +38603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:39" s="43" customFormat="1">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -38671,7 +38671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:39" s="5" customFormat="1">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -38736,7 +38736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:39" s="5" customFormat="1">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -38801,7 +38801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:39" s="5" customFormat="1">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -38866,7 +38866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:39" s="5" customFormat="1">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -38931,7 +38931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:39" s="5" customFormat="1">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -38996,7 +38996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:39" s="5" customFormat="1">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -39061,7 +39061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:39" s="5" customFormat="1">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -39126,7 +39126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:39" s="5" customFormat="1">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:39" s="5" customFormat="1">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -39250,7 +39250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:39" s="5" customFormat="1">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -39312,7 +39312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:39" s="5" customFormat="1">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -39374,7 +39374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:39" s="5" customFormat="1">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -39436,7 +39436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:39" s="5" customFormat="1">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -39498,7 +39498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:39" s="54" customFormat="1">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -39566,7 +39566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:39" s="54" customFormat="1">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:39" s="54" customFormat="1">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -39699,7 +39699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:39" s="63" customFormat="1">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -39767,7 +39767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:39" s="63" customFormat="1">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -39832,7 +39832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -39900,7 +39900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:39" s="54" customFormat="1">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -39968,7 +39968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:39" s="54" customFormat="1">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -40033,7 +40033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:39" s="54" customFormat="1">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -40101,7 +40101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:39" s="63" customFormat="1">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -40169,7 +40169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:39" s="63" customFormat="1">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -40234,7 +40234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:39" s="63" customFormat="1">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -40302,7 +40302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:39" s="54" customFormat="1">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -40370,7 +40370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:39" s="54" customFormat="1">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -40435,7 +40435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:39" s="54" customFormat="1">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -40503,7 +40503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:39" s="63" customFormat="1">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:39" s="63" customFormat="1">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -40636,7 +40636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:39" s="63" customFormat="1">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -40704,7 +40704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:39" s="54" customFormat="1">
       <c r="A465" s="5">
         <v>464</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:39" s="54" customFormat="1">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -40837,7 +40837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:39" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:39" s="54" customFormat="1">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:39" s="57" customFormat="1">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:39" s="57" customFormat="1">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -41035,7 +41035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:39" s="57" customFormat="1">
       <c r="A470" s="5">
         <v>469</v>
       </c>
@@ -41100,7 +41100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:39" s="57" customFormat="1">
       <c r="A471" s="5">
         <v>470</v>
       </c>
@@ -41165,7 +41165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:39" s="57" customFormat="1">
       <c r="A472" s="5">
         <v>471</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:39" s="57" customFormat="1">
       <c r="A473" s="5">
         <v>472</v>
       </c>
@@ -41295,7 +41295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:39" s="67" customFormat="1">
       <c r="A474" s="5">
         <v>473</v>
       </c>
@@ -41360,7 +41360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:39" s="67" customFormat="1">
       <c r="A475" s="5">
         <v>474</v>
       </c>
@@ -41425,7 +41425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:39" s="69" customFormat="1">
       <c r="A476" s="5">
         <v>475</v>
       </c>
@@ -41490,7 +41490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:39" s="69" customFormat="1">
       <c r="A477" s="5">
         <v>476</v>
       </c>
@@ -41555,7 +41555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:39" s="69" customFormat="1">
       <c r="A478" s="5">
         <v>477</v>
       </c>
@@ -41620,7 +41620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:39" s="69" customFormat="1">
       <c r="A479" s="5">
         <v>478</v>
       </c>
@@ -41685,7 +41685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A480" s="5">
         <v>479</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A481" s="5">
         <v>480</v>
       </c>
@@ -41809,7 +41809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A482" s="5">
         <v>481</v>
       </c>
@@ -41871,7 +41871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A483" s="5">
         <v>482</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A484" s="5">
         <v>483</v>
       </c>
@@ -41995,7 +41995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:39" s="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:39" s="80" customFormat="1" ht="14.25">
       <c r="A485" s="5">
         <v>484</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A486" s="5">
         <v>485</v>
       </c>
@@ -42122,7 +42122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A487" s="5">
         <v>486</v>
       </c>
@@ -42187,7 +42187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -42252,7 +42252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -42317,7 +42317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -42382,7 +42382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -42447,7 +42447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -42512,7 +42512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:39">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -42593,7 +42593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:39">
       <c r="A494" s="5">
         <v>493</v>
       </c>
@@ -42674,7 +42674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:39">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -42757,7 +42757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:39">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -42840,7 +42840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:39">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -42917,7 +42917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:39">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -42994,7 +42994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:39">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -43071,7 +43071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:39">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -43148,7 +43148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:39">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -43225,7 +43225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:39">
       <c r="A502" s="5">
         <v>501</v>
       </c>
@@ -43302,7 +43302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:39">
       <c r="A503" s="5">
         <v>502</v>
       </c>
@@ -43379,7 +43379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:39">
       <c r="A504" s="5">
         <v>503</v>
       </c>
@@ -43456,7 +43456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:39">
       <c r="A505" s="5">
         <v>504</v>
       </c>
@@ -43533,7 +43533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:39">
       <c r="A506" s="5">
         <v>505</v>
       </c>
@@ -43610,7 +43610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:39">
       <c r="A507" s="5">
         <v>506</v>
       </c>
@@ -43687,7 +43687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:39">
       <c r="A508" s="5">
         <v>507</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:39" s="5" customFormat="1">
       <c r="A509" s="5">
         <v>508</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:39" s="5" customFormat="1">
       <c r="A510" s="5">
         <v>509</v>
       </c>
@@ -43884,7 +43884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:39" s="5" customFormat="1">
       <c r="A511" s="5">
         <v>510</v>
       </c>
@@ -43944,7 +43944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:39" s="84" customFormat="1">
       <c r="A512" s="84">
         <v>511</v>
       </c>
@@ -43991,7 +43991,7 @@
         <v>99999999</v>
       </c>
       <c r="Y512" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z512" s="84">
         <v>1610985599</v>
@@ -44012,7 +44012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:39" s="84" customFormat="1">
       <c r="A513" s="84">
         <v>512</v>
       </c>
@@ -44059,7 +44059,7 @@
         <v>99999999</v>
       </c>
       <c r="Y513" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z513" s="84">
         <v>1610985599</v>
@@ -44080,7 +44080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:39" s="84" customFormat="1">
       <c r="A514" s="84">
         <v>513</v>
       </c>
@@ -44127,7 +44127,7 @@
         <v>99999999</v>
       </c>
       <c r="Y514" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z514" s="84">
         <v>1610985599</v>
@@ -44148,7 +44148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:39" s="84" customFormat="1">
       <c r="A515" s="84">
         <v>514</v>
       </c>
@@ -44195,7 +44195,7 @@
         <v>99999999</v>
       </c>
       <c r="Y515" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z515" s="84">
         <v>1610985599</v>
@@ -44216,7 +44216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:39" s="84" customFormat="1">
       <c r="A516" s="84">
         <v>515</v>
       </c>
@@ -44263,7 +44263,7 @@
         <v>99999999</v>
       </c>
       <c r="Y516" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z516" s="84">
         <v>1610985599</v>
@@ -44284,7 +44284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:39" s="84" customFormat="1">
       <c r="A517" s="84">
         <v>516</v>
       </c>
@@ -44331,7 +44331,7 @@
         <v>99999999</v>
       </c>
       <c r="Y517" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z517" s="84">
         <v>1610985599</v>
@@ -44352,7 +44352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:39" s="84" customFormat="1">
       <c r="A518" s="84">
         <v>517</v>
       </c>
@@ -44399,7 +44399,7 @@
         <v>99999999</v>
       </c>
       <c r="Y518" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z518" s="84">
         <v>1610985599</v>
@@ -44420,7 +44420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:39" s="84" customFormat="1">
       <c r="A519" s="84">
         <v>518</v>
       </c>
@@ -44467,7 +44467,7 @@
         <v>99999999</v>
       </c>
       <c r="Y519" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z519" s="84">
         <v>1610985599</v>
@@ -44500,18 +44500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="68.875" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>398</v>
       </c>
@@ -44528,7 +44528,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="57.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -44545,7 +44545,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="78.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -44559,7 +44559,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -44573,7 +44573,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -44587,7 +44587,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -44601,7 +44601,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -44615,7 +44615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -44629,7 +44629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44643,7 +44643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44657,7 +44657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44671,7 +44671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44685,7 +44685,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -44699,7 +44699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44713,7 +44713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44727,7 +44727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44741,7 +44741,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -44755,7 +44755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -44769,7 +44769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -44783,7 +44783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="12" customFormat="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -44797,7 +44797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="12" customFormat="1">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -44811,7 +44811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="12" customFormat="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="12" customFormat="1">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -44839,7 +44839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -44853,7 +44853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="12" customFormat="1">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -44867,7 +44867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="12" customFormat="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -44881,7 +44881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="12" customFormat="1">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -44896,7 +44896,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="12" customFormat="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -44911,7 +44911,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="12" customFormat="1">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -44926,7 +44926,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="12" customFormat="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -44941,7 +44941,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="12" customFormat="1">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -44956,7 +44956,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="12" customFormat="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -44971,7 +44971,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="12" customFormat="1">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -44986,7 +44986,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="12" customFormat="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -45001,7 +45001,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="12" customFormat="1">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -45016,7 +45016,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="12" customFormat="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -45031,7 +45031,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="12" customFormat="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -45046,7 +45046,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="12" customFormat="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -45061,7 +45061,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -45075,7 +45075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -45089,7 +45089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -45117,7 +45117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="12" customFormat="1">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -45131,7 +45131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="12" customFormat="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -45145,7 +45145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="12" customFormat="1">
       <c r="A45" s="65">
         <v>44</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="12" customFormat="1">
       <c r="A46" s="65">
         <v>45</v>
       </c>
@@ -45173,7 +45173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="12" customFormat="1">
       <c r="A47" s="65">
         <v>46</v>
       </c>
@@ -45187,7 +45187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="12" customFormat="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -45201,7 +45201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="12" customFormat="1">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -45215,7 +45215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -45229,7 +45229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -45257,7 +45257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="56" customFormat="1">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -45271,7 +45271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="56" customFormat="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -45285,7 +45285,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -45299,7 +45299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -45313,7 +45313,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -45327,7 +45327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -45341,7 +45341,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -45355,7 +45355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -45369,7 +45369,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -45383,7 +45383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -45397,7 +45397,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -45425,7 +45425,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -45439,7 +45439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -45453,7 +45453,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -45467,7 +45467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -45481,7 +45481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="88">
         <v>68</v>
       </c>
@@ -45495,7 +45495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="88">
         <v>69</v>
       </c>
@@ -45524,7 +45524,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="19.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="52" customWidth="1"/>
@@ -45551,7 +45551,7 @@
     <col min="31" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>409</v>
       </c>
@@ -45643,7 +45643,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="11" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -45711,7 +45711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="11" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -45782,7 +45782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -45853,7 +45853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="11" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -45924,7 +45924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="11" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -45995,7 +45995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="11" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -46066,7 +46066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="11" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -46132,7 +46132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="11" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -46198,7 +46198,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -46264,7 +46264,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="11" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="11" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -46401,7 +46401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="11" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -46472,7 +46472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="11" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -46543,7 +46543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="11" customFormat="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -46613,7 +46613,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="11" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -46684,7 +46684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="11" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -46750,7 +46750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="11" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -46816,7 +46816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="11" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -46882,7 +46882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="11" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -46948,7 +46948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="34" customFormat="1">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -47014,7 +47014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="11" customFormat="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="11" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -47142,7 +47142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="11" customFormat="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -47212,7 +47212,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="11" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -47283,10 +47283,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="11" customFormat="1">
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="11" customFormat="1">
       <c r="D27" s="52"/>
     </row>
   </sheetData>
@@ -47306,7 +47306,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -47327,7 +47327,7 @@
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47401,7 +47401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -47457,7 +47457,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -47516,7 +47516,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -47564,7 +47564,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="12" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -47605,7 +47605,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="12" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -47646,7 +47646,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="12" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -47705,7 +47705,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="12" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -47761,7 +47761,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -47799,7 +47799,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -47837,7 +47837,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -47875,7 +47875,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -47913,7 +47913,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -47960,7 +47960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -48007,7 +48007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -48054,7 +48054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="25" customFormat="1">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -48090,7 +48090,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="25" customFormat="1">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -48126,7 +48126,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="25" customFormat="1">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -48162,7 +48162,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="25" customFormat="1">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -48198,7 +48198,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="20" customFormat="1">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -48236,7 +48236,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="20" customFormat="1">
       <c r="A21" s="20">
         <v>20</v>
       </c>

--- a/config_1.12/shoping_config.xlsx
+++ b/config_1.12/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1919">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8215,6 +8215,30 @@
   </si>
   <si>
     <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11122,13 +11146,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN519"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V525" sqref="V525"/>
+      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44434,7 +44458,7 @@
         <v>1877</v>
       </c>
       <c r="I519" s="84" t="s">
-        <v>1902</v>
+        <v>1914</v>
       </c>
       <c r="J519" s="84" t="s">
         <v>1910</v>
@@ -44461,7 +44485,7 @@
         <v>1912</v>
       </c>
       <c r="W519" s="84" t="s">
-        <v>1900</v>
+        <v>1180</v>
       </c>
       <c r="X519" s="84">
         <v>99999999</v>
@@ -44485,6 +44509,65 @@
         <v>1</v>
       </c>
       <c r="AM519" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
